--- a/Hardware/Pines Sidewinder.xlsx
+++ b/Hardware/Pines Sidewinder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93B70C8-6154-4B60-B1B3-6D11BCDC077A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C11AF8-47E2-4F57-82D9-8BACBA34DE1F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,7 +969,7 @@
   <dimension ref="B2:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1174,10 +1174,10 @@
         <v>137</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>97</v>
@@ -1194,10 +1194,10 @@
         <v>136</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>99</v>
@@ -1214,10 +1214,10 @@
         <v>135</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>101</v>
@@ -1234,10 +1234,10 @@
         <v>171</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1249,10 +1249,10 @@
         <v>170</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>103</v>
@@ -1269,10 +1269,10 @@
         <v>164</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>104</v>
@@ -1289,10 +1289,10 @@
         <v>165</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -1303,10 +1303,10 @@
         <v>163</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>63</v>
@@ -1323,10 +1323,10 @@
         <v>162</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>65</v>
@@ -1343,10 +1343,10 @@
         <v>160</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>67</v>
@@ -1363,10 +1363,10 @@
         <v>161</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -1378,10 +1378,10 @@
         <v>159</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>69</v>
@@ -1398,10 +1398,10 @@
         <v>158</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>71</v>
@@ -1418,10 +1418,10 @@
         <v>157</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1438,10 @@
         <v>156</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>75</v>
@@ -1458,10 +1458,10 @@
         <v>155</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -1486,10 +1486,10 @@
         <v>153</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
@@ -1500,10 +1500,10 @@
         <v>152</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
@@ -1514,10 +1514,10 @@
         <v>151</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
@@ -1593,6 +1593,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="E14:F31">
+    <sortCondition ref="E26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
